--- a/L&B/Periode 1/STARRT week 8.xlsx
+++ b/L&B/Periode 1/STARRT week 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarvis\School-Projects\L&amp;B\Periode 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA846CB-36F4-4F25-BAA1-7D52451B7E18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51C76F-E923-449F-9B01-F16669DB28F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16260" xr2:uid="{088A2082-70ED-FA4E-8E2F-BEBF0292BF3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>INKOMSTEN</t>
   </si>
@@ -604,7 +604,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,6 +1132,9 @@
       <c r="F36" s="3">
         <v>436</v>
       </c>
+      <c r="H36" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
